--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjagilanka/Desktop/sem2/633PA/GA_MusicRecommendation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DC4744-B24A-1445-8316-728DA98283A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B16358E-E77F-0148-AFC4-68FB352D1F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{880F0B72-0B2C-0249-BB66-76A646943704}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{880F0B72-0B2C-0249-BB66-76A646943704}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
   <si>
     <t>Failed</t>
   </si>
@@ -53,6 +54,15 @@
   </si>
   <si>
     <t>Speed Up/Task per Processor</t>
+  </si>
+  <si>
+    <t>Efficiency/Processor Size</t>
+  </si>
+  <si>
+    <t>Efficiency/Task per Processor</t>
+  </si>
+  <si>
+    <t>Difference in Task vs Nodes</t>
   </si>
 </sst>
 </file>
@@ -124,11 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -136,6 +146,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -153,6 +167,4740 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Efficiency/Task per Processor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$N$10:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24767972583534542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25440931226459362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24863782556599606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40077845597806172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BC0-1642-AA39-92EF7305EFB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$O$10:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12391430726204317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12634150757024754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12579508152182597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20040778363254122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BC0-1642-AA39-92EF7305EFB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$P$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$P$10:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8185927326037496E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1919218905593473E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.503457622406783E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7268826482199838E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1BC0-1642-AA39-92EF7305EFB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$Q$10:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9944747475548299E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7258840924021701E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1087984186316222E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8960935917347563E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1BC0-1642-AA39-92EF7305EFB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="825593600"/>
+        <c:axId val="825529632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="825593600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825529632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="825529632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825593600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency with Task per processor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$M$11:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$N$12:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.24767972583534542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25440931226459362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24863782556599606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40077845597806172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54AF-B147-988E-C70B0105ADE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$M$11:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$O$12:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12391430726204317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12634150757024754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12579508152182597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20040778363254122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54AF-B147-988E-C70B0105ADE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$M$11:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$P$12:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8185927326037496E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1919218905593473E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.503457622406783E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7268826482199838E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54AF-B147-988E-C70B0105ADE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$M$11:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$Q$12:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9944747475548299E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7258840924021701E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1087984186316222E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8960935917347563E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-54AF-B147-988E-C70B0105ADE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="823862608"/>
+        <c:axId val="823864864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="823862608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="823864864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="823864864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="823862608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Efficiency/Task per Processor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$10:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24767972583534542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25440931226459362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24863782556599606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40077845597806172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4C6-B941-AFDD-F314ECF17297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$10:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12391430726204317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12634150757024754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12579508152182597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20040778363254122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4C6-B941-AFDD-F314ECF17297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$10:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8185927326037496E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1919218905593473E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.503457622406783E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7268826482199838E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4C6-B941-AFDD-F314ECF17297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$10:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9944747475548299E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7258840924021701E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1087984186316222E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8960935917347563E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A4C6-B941-AFDD-F314ECF17297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="825593600"/>
+        <c:axId val="825529632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="825593600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825529632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="825529632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825593600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency with Task per processor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$12:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.24767972583534542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25440931226459362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24863782556599606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40077845597806172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-172D-1E40-8FE9-FB0B3644582B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$12:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12391430726204317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12634150757024754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12579508152182597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20040778363254122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-172D-1E40-8FE9-FB0B3644582B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$12:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8185927326037496E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1919218905593473E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.503457622406783E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7268826482199838E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-172D-1E40-8FE9-FB0B3644582B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$12:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9944747475548299E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7258840924021701E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1087984186316222E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8960935917347563E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-172D-1E40-8FE9-FB0B3644582B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="823862608"/>
+        <c:axId val="823864864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="823862608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="823864864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="823864864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="823862608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320635</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557388</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19284</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B139F21D-3C94-4643-9183-ED44F8E9829B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485265</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>192382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502512</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82002</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886B9846-6874-274B-8230-D8A43B50112D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>626376</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>863129</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27124</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA733779-5FED-395A-A26C-EABA109E5657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>524463</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>761216</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913205CB-B78F-A65B-E2F0-68C306D603C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,709 +5199,2097 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFFE5A7-1BA2-6C4B-89ED-F384FB655F83}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D694867-63F2-DA41-B3A6-3280F8ED7C91}">
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="176" zoomScaleNormal="270" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="270" workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>4</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="5">
         <v>8</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="5">
         <v>2</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="5">
         <v>4</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="5">
         <v>8</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>500</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>1.3220700000000001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>0.70407399999999998</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>0.37130600000000002</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>500</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
         <f>B3/B3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <f>C3/C3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <f>D3/D3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="e">
+      <c r="K3" s="6" t="e">
         <f>E3/E3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="6">
         <v>500</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="6">
         <f>H3</f>
         <v>1</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="6">
         <f>I3</f>
         <v>1</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="6">
         <v>1</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>1000</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>2.5529500000000001</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>1.31019</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>0.68062199999999995</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>1000</v>
       </c>
-      <c r="H4" s="4">
-        <f>B3/B4</f>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:K7" si="0">B3/B4</f>
         <v>0.51785973089954762</v>
       </c>
-      <c r="I4" s="4">
-        <f>C3/C4</f>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
         <v>0.53738312763797613</v>
       </c>
-      <c r="J4" s="4">
-        <f>D3/D4</f>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
         <v>0.54553922735380289</v>
       </c>
-      <c r="K4" s="4" t="e">
-        <f>E3/E4</f>
+      <c r="K4" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="6">
         <v>1000</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="6">
         <f>H4/2</f>
         <v>0.25892986544977381</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="6">
         <f>I4/4</f>
         <v>0.13434578190949403</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="6">
         <f>J4/8</f>
         <v>6.8192403419225361E-2</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>2000</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>5.20235</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>2.5647799999999998</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>1.3227</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>2000</v>
       </c>
-      <c r="H5" s="4">
-        <f>B4/B5</f>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
         <v>0.49073015079723586</v>
       </c>
-      <c r="I5" s="4">
-        <f>C4/C5</f>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
         <v>0.51083913630018951</v>
       </c>
-      <c r="J5" s="4">
-        <f>D4/D5</f>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
         <v>0.51457019732365616</v>
       </c>
-      <c r="K5" s="4" t="e">
-        <f>E4/E5</f>
+      <c r="K5" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <v>2000</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="6">
         <f>H5/2</f>
         <v>0.24536507539861793</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
         <f>I5/4</f>
         <v>0.12770978407504738</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="6">
         <f>J5/8</f>
         <v>6.4321274665457021E-2</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>4000</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>10.070399999999999</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>5.1643100000000004</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>2.6423399999999999</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>4000</v>
       </c>
-      <c r="H6" s="4">
-        <f>B5/B6</f>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
         <v>0.51659814903082302</v>
       </c>
-      <c r="I6" s="4">
-        <f>C5/C6</f>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
         <v>0.4966355621564158</v>
       </c>
-      <c r="J6" s="4">
-        <f>D5/D6</f>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
         <v>0.50057903222144007</v>
       </c>
-      <c r="K6" s="4" t="e">
-        <f>E5/E6</f>
+      <c r="K6" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="6">
         <v>4000</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="6">
         <f>H6/2</f>
         <v>0.25829907451541151</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="6">
         <f>I6/4</f>
         <v>0.12415889053910395</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="6">
         <f>J6/8</f>
         <v>6.2572379027680008E-2</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>5000</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>12.723000000000001</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>6.3276599999999998</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>3.2056</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>5000</v>
       </c>
-      <c r="H7" s="4">
-        <f>B6/B7</f>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
         <v>0.79151143598207963</v>
       </c>
-      <c r="I7" s="4">
-        <f>C6/C7</f>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
         <v>0.81614846562552357</v>
       </c>
-      <c r="J7" s="4">
-        <f>D6/D7</f>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
         <v>0.8242887446967806</v>
       </c>
-      <c r="K7" s="4" t="e">
-        <f>E6/E7</f>
+      <c r="K7" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="6">
         <v>5000</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="6">
         <f>H7/2</f>
         <v>0.39575571799103981</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="6">
         <f>I7/4</f>
         <v>0.20403711640638089</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="6">
         <f>J7/8</f>
         <v>0.10303609308709757</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>16</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="5">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="5">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="5">
         <v>16</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="5">
         <v>2</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="5">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="5">
         <v>8</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>500</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>1.5899799999999999</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>0.78866499999999995</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>0.44501299999999999</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>0.18129700000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="6">
         <v>500</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="6">
         <f>B11/B11</f>
         <v>1</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" ref="I11:K11" si="0">C11/C11</f>
+      <c r="I11" s="6">
+        <f t="shared" ref="I11:K11" si="1">C11/C11</f>
         <v>1</v>
       </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
+      <c r="K11" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="6">
         <v>500</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="6">
         <v>1</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="6">
         <v>1</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="6">
         <v>1</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>1000</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>3.2097500000000001</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>1.5911500000000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>0.81580799999999998</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>0.37839899999999999</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <v>1000</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="6">
         <f>B11/B12</f>
         <v>0.49535945167069084</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" ref="I12:K15" si="1">C11/C12</f>
+      <c r="I12" s="6">
+        <f t="shared" ref="I12:K15" si="2">C11/C12</f>
         <v>0.49565722904817267</v>
       </c>
-      <c r="J12" s="4">
-        <f t="shared" si="1"/>
+      <c r="J12" s="6">
+        <f t="shared" si="2"/>
         <v>0.54548741860829997</v>
       </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
         <v>0.47911595960877279</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="6">
         <v>1000</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="6">
         <f>H12/2</f>
         <v>0.24767972583534542</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="6">
         <f>I12/4</f>
         <v>0.12391430726204317</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="6">
         <f>J12/8</f>
         <v>6.8185927326037496E-2</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="6">
         <f>K12/16</f>
         <v>2.9944747475548299E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>2000</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>6.3082399999999996</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>3.1485099999999999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>1.6469199999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>0.63474699999999995</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <v>2000</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
         <f>B12/B13</f>
         <v>0.50881862452918725</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="1"/>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
         <v>0.50536603028099014</v>
       </c>
-      <c r="J13" s="4">
-        <f t="shared" si="1"/>
+      <c r="J13" s="6">
+        <f t="shared" si="2"/>
         <v>0.49535375124474779</v>
       </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
         <v>0.59614145478434721</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="6">
         <v>2000</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="6">
         <f>H13/2</f>
         <v>0.25440931226459362</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="6">
         <f>I13/4</f>
         <v>0.12634150757024754</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="6">
         <f>J13/8</f>
         <v>6.1919218905593473E-2</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="6">
         <f>K13/16</f>
         <v>3.7258840924021701E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>4000</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>12.685600000000001</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>6.2572200000000002</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>3.16547</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>1.2761100000000001</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6">
         <v>4000</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="6">
         <f>B13/B14</f>
         <v>0.49727565113199212</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="1"/>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
         <v>0.5031803260873039</v>
       </c>
-      <c r="J14" s="4">
-        <f t="shared" si="1"/>
+      <c r="J14" s="6">
+        <f t="shared" si="2"/>
         <v>0.52027660979254264</v>
       </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
         <v>0.49740774698105955</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="6">
         <v>4000</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="6">
         <f>H14/2</f>
         <v>0.24863782556599606</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="6">
         <f>I14/4</f>
         <v>0.12579508152182597</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="6">
         <f>J14/8</f>
         <v>6.503457622406783E-2</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="6">
         <f>K14/16</f>
         <v>3.1087984186316222E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>5000</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>15.8262</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>7.8056099999999997</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>4.0679400000000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="6">
         <v>1.6289899999999999</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="6">
         <v>5000</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="6">
         <f>B14/B15</f>
         <v>0.80155691195612344</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
+      <c r="I15" s="6">
+        <f t="shared" si="2"/>
         <v>0.80163113453016488</v>
       </c>
-      <c r="J15" s="4">
-        <f t="shared" si="1"/>
+      <c r="J15" s="6">
+        <f t="shared" si="2"/>
         <v>0.77815061185759871</v>
       </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
+      <c r="K15" s="6">
+        <f t="shared" si="2"/>
         <v>0.78337497467756101</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="6">
         <v>5000</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="6">
         <f>H15/2</f>
         <v>0.40077845597806172</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="6">
         <f>I15/4</f>
         <v>0.20040778363254122</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="6">
         <f>J15/8</f>
         <v>9.7268826482199838E-2</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="6">
         <f>K15/16</f>
         <v>4.8960935917347563E-2</v>
       </c>
     </row>
+    <row r="23" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J23" s="6"/>
+      <c r="K23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>2</v>
+      </c>
+      <c r="L24" s="5">
+        <v>4</v>
+      </c>
+      <c r="M24" s="5">
+        <v>8</v>
+      </c>
+      <c r="N24" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J25" s="6">
+        <v>500</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1.3220700000000001</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.70407399999999998</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.37130600000000002</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J26" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2.5529500000000001</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1.31019</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.68062199999999995</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K27" s="6">
+        <v>5.20235</v>
+      </c>
+      <c r="L27" s="6">
+        <v>2.5647799999999998</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1.3227</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2</v>
+      </c>
+      <c r="R27" s="3">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J28" s="6">
+        <v>4000</v>
+      </c>
+      <c r="K28" s="6">
+        <v>10.070399999999999</v>
+      </c>
+      <c r="L28" s="6">
+        <v>5.1643100000000004</v>
+      </c>
+      <c r="M28" s="6">
+        <v>2.6423399999999999</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" ref="Q28:S32" si="3">K25-K33</f>
+        <v>-0.26790999999999987</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.4590999999999972E-2</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.3706999999999967E-2</v>
+      </c>
+      <c r="T28" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J29" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K29" s="6">
+        <v>12.723000000000001</v>
+      </c>
+      <c r="L29" s="6">
+        <v>6.3276599999999998</v>
+      </c>
+      <c r="M29" s="6">
+        <v>3.2056</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.65680000000000005</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.2809600000000001</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.13518600000000003</v>
+      </c>
+      <c r="T29" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="P30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.1058899999999996</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.58373000000000008</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.32421999999999995</v>
+      </c>
+      <c r="T30" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J31" s="6"/>
+      <c r="K31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="P31" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.6152000000000015</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.0929099999999998</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.52313000000000009</v>
+      </c>
+      <c r="T31" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>2</v>
+      </c>
+      <c r="L32" s="5">
+        <v>4</v>
+      </c>
+      <c r="M32" s="5">
+        <v>8</v>
+      </c>
+      <c r="N32" s="5">
+        <v>16</v>
+      </c>
+      <c r="P32" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.1031999999999993</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.4779499999999999</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.86234000000000011</v>
+      </c>
+      <c r="T32" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J33" s="6">
+        <v>500</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1.5899799999999999</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.78866499999999995</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0.44501299999999999</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0.18129700000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J34" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="6">
+        <v>3.2097500000000001</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1.5911500000000001</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0.81580799999999998</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0.37839899999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J35" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K35" s="6">
+        <v>6.3082399999999996</v>
+      </c>
+      <c r="L35" s="6">
+        <v>3.1485099999999999</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1.6469199999999999</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0.63474699999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J36" s="6">
+        <v>4000</v>
+      </c>
+      <c r="K36" s="6">
+        <v>12.685600000000001</v>
+      </c>
+      <c r="L36" s="6">
+        <v>6.2572200000000002</v>
+      </c>
+      <c r="M36" s="6">
+        <v>3.16547</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1.2761100000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J37" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K37" s="6">
+        <v>15.8262</v>
+      </c>
+      <c r="L37" s="6">
+        <v>7.8056099999999997</v>
+      </c>
+      <c r="M37" s="6">
+        <v>4.0679400000000001</v>
+      </c>
+      <c r="N37" s="6">
+        <v>1.6289899999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="7">
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="Q26:T26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFFE5A7-1BA2-6C4B-89ED-F384FB655F83}">
+  <dimension ref="A1:T37"/>
+  <sheetViews>
+    <sheetView topLeftCell="E2" zoomScale="162" zoomScaleNormal="270" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5">
+        <v>16</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5">
+        <v>4</v>
+      </c>
+      <c r="P2" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>500</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.3220700000000001</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.70407399999999998</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.37130600000000002</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>500</v>
+      </c>
+      <c r="H3" s="6">
+        <f>B3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <f>C3/C3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <f>D3/D3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="6" t="e">
+        <f>E3/E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M3" s="6">
+        <v>500</v>
+      </c>
+      <c r="N3" s="6">
+        <f>H3</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <f>I3</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.5529500000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.31019</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.68062199999999995</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:K7" si="0">B3/B4</f>
+        <v>0.51785973089954762</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53738312763797613</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.54553922735380289</v>
+      </c>
+      <c r="K4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="6">
+        <f>H4/2</f>
+        <v>0.25892986544977381</v>
+      </c>
+      <c r="O4" s="6">
+        <f>I4/4</f>
+        <v>0.13434578190949403</v>
+      </c>
+      <c r="P4" s="6">
+        <f>J4/8</f>
+        <v>6.8192403419225361E-2</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5.20235</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.5647799999999998</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.3227</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49073015079723586</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.51083913630018951</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.51457019732365616</v>
+      </c>
+      <c r="K5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2000</v>
+      </c>
+      <c r="N5" s="6">
+        <f>H5/2</f>
+        <v>0.24536507539861793</v>
+      </c>
+      <c r="O5" s="6">
+        <f>I5/4</f>
+        <v>0.12770978407504738</v>
+      </c>
+      <c r="P5" s="6">
+        <f>J5/8</f>
+        <v>6.4321274665457021E-2</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10.070399999999999</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5.1643100000000004</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.6423399999999999</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4000</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.51659814903082302</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4966355621564158</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50057903222144007</v>
+      </c>
+      <c r="K6" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4000</v>
+      </c>
+      <c r="N6" s="6">
+        <f>H6/2</f>
+        <v>0.25829907451541151</v>
+      </c>
+      <c r="O6" s="6">
+        <f>I6/4</f>
+        <v>0.12415889053910395</v>
+      </c>
+      <c r="P6" s="6">
+        <f>J6/8</f>
+        <v>6.2572379027680008E-2</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>5000</v>
+      </c>
+      <c r="B7" s="6">
+        <v>12.723000000000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.3276599999999998</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3.2056</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.79151143598207963</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.81614846562552357</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8242887446967806</v>
+      </c>
+      <c r="K7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N7" s="6">
+        <f>H7/2</f>
+        <v>0.39575571799103981</v>
+      </c>
+      <c r="O7" s="6">
+        <f>I7/4</f>
+        <v>0.20403711640638089</v>
+      </c>
+      <c r="P7" s="6">
+        <f>J7/8</f>
+        <v>0.10303609308709757</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+      <c r="K10" s="5">
+        <v>16</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>4</v>
+      </c>
+      <c r="P10" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>500</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.5899799999999999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.78866499999999995</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.44501299999999999</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.18129700000000001</v>
+      </c>
+      <c r="G11" s="6">
+        <v>500</v>
+      </c>
+      <c r="H11" s="6">
+        <f>B11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" ref="I11:K11" si="1">C11/C11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>500</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3.2097500000000001</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.5911500000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.81580799999999998</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.37839899999999999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="6">
+        <f>B11/B12</f>
+        <v>0.49535945167069084</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" ref="I12:K15" si="2">C11/C12</f>
+        <v>0.49565722904817267</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.54548741860829997</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.47911595960877279</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="6">
+        <f>H12/2</f>
+        <v>0.24767972583534542</v>
+      </c>
+      <c r="O12" s="6">
+        <f>I12/4</f>
+        <v>0.12391430726204317</v>
+      </c>
+      <c r="P12" s="6">
+        <f>J12/8</f>
+        <v>6.8185927326037496E-2</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>K12/16</f>
+        <v>2.9944747475548299E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6.3082399999999996</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3.1485099999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.6469199999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.63474699999999995</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="6">
+        <f>B12/B13</f>
+        <v>0.50881862452918725</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.50536603028099014</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.49535375124474779</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.59614145478434721</v>
+      </c>
+      <c r="M13" s="6">
+        <v>2000</v>
+      </c>
+      <c r="N13" s="6">
+        <f>H13/2</f>
+        <v>0.25440931226459362</v>
+      </c>
+      <c r="O13" s="6">
+        <f>I13/4</f>
+        <v>0.12634150757024754</v>
+      </c>
+      <c r="P13" s="6">
+        <f>J13/8</f>
+        <v>6.1919218905593473E-2</v>
+      </c>
+      <c r="Q13" s="6">
+        <f>K13/16</f>
+        <v>3.7258840924021701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B14" s="6">
+        <v>12.685600000000001</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6.2572200000000002</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3.16547</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.2761100000000001</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4000</v>
+      </c>
+      <c r="H14" s="6">
+        <f>B13/B14</f>
+        <v>0.49727565113199212</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5031803260873039</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.52027660979254264</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.49740774698105955</v>
+      </c>
+      <c r="M14" s="6">
+        <v>4000</v>
+      </c>
+      <c r="N14" s="6">
+        <f>H14/2</f>
+        <v>0.24863782556599606</v>
+      </c>
+      <c r="O14" s="6">
+        <f>I14/4</f>
+        <v>0.12579508152182597</v>
+      </c>
+      <c r="P14" s="6">
+        <f>J14/8</f>
+        <v>6.503457622406783E-2</v>
+      </c>
+      <c r="Q14" s="6">
+        <f>K14/16</f>
+        <v>3.1087984186316222E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>5000</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15.8262</v>
+      </c>
+      <c r="C15" s="6">
+        <v>7.8056099999999997</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4.0679400000000001</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.6289899999999999</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H15" s="6">
+        <f>B14/B15</f>
+        <v>0.80155691195612344</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.80163113453016488</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.77815061185759871</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.78337497467756101</v>
+      </c>
+      <c r="M15" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N15" s="6">
+        <f>H15/2</f>
+        <v>0.40077845597806172</v>
+      </c>
+      <c r="O15" s="6">
+        <f>I15/4</f>
+        <v>0.20040778363254122</v>
+      </c>
+      <c r="P15" s="6">
+        <f>J15/8</f>
+        <v>9.7268826482199838E-2</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>K15/16</f>
+        <v>4.8960935917347563E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J23" s="6"/>
+      <c r="K23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>2</v>
+      </c>
+      <c r="L24" s="5">
+        <v>4</v>
+      </c>
+      <c r="M24" s="5">
+        <v>8</v>
+      </c>
+      <c r="N24" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J25" s="6">
+        <v>500</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1.3220700000000001</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.70407399999999998</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.37130600000000002</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J26" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2.5529500000000001</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1.31019</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.68062199999999995</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K27" s="6">
+        <v>5.20235</v>
+      </c>
+      <c r="L27" s="6">
+        <v>2.5647799999999998</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1.3227</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2</v>
+      </c>
+      <c r="R27" s="3">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J28" s="6">
+        <v>4000</v>
+      </c>
+      <c r="K28" s="6">
+        <v>10.070399999999999</v>
+      </c>
+      <c r="L28" s="6">
+        <v>5.1643100000000004</v>
+      </c>
+      <c r="M28" s="6">
+        <v>2.6423399999999999</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" ref="Q28:S32" si="3">K25-K33</f>
+        <v>-0.26790999999999987</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.4590999999999972E-2</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.3706999999999967E-2</v>
+      </c>
+      <c r="T28" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J29" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K29" s="6">
+        <v>12.723000000000001</v>
+      </c>
+      <c r="L29" s="6">
+        <v>6.3276599999999998</v>
+      </c>
+      <c r="M29" s="6">
+        <v>3.2056</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.65680000000000005</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.2809600000000001</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.13518600000000003</v>
+      </c>
+      <c r="T29" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="P30" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.1058899999999996</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.58373000000000008</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.32421999999999995</v>
+      </c>
+      <c r="T30" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J31" s="6"/>
+      <c r="K31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="P31" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.6152000000000015</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.0929099999999998</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.52313000000000009</v>
+      </c>
+      <c r="T31" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>2</v>
+      </c>
+      <c r="L32" s="5">
+        <v>4</v>
+      </c>
+      <c r="M32" s="5">
+        <v>8</v>
+      </c>
+      <c r="N32" s="5">
+        <v>16</v>
+      </c>
+      <c r="P32" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.1031999999999993</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.4779499999999999</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.86234000000000011</v>
+      </c>
+      <c r="T32" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J33" s="6">
+        <v>500</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1.5899799999999999</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.78866499999999995</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0.44501299999999999</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0.18129700000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J34" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="6">
+        <v>3.2097500000000001</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1.5911500000000001</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0.81580799999999998</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0.37839899999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J35" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K35" s="6">
+        <v>6.3082399999999996</v>
+      </c>
+      <c r="L35" s="6">
+        <v>3.1485099999999999</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1.6469199999999999</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0.63474699999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J36" s="6">
+        <v>4000</v>
+      </c>
+      <c r="K36" s="6">
+        <v>12.685600000000001</v>
+      </c>
+      <c r="L36" s="6">
+        <v>6.2572200000000002</v>
+      </c>
+      <c r="M36" s="6">
+        <v>3.16547</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1.2761100000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J37" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K37" s="6">
+        <v>15.8262</v>
+      </c>
+      <c r="L37" s="6">
+        <v>7.8056099999999997</v>
+      </c>
+      <c r="M37" s="6">
+        <v>4.0679400000000001</v>
+      </c>
+      <c r="N37" s="6">
+        <v>1.6289899999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>